--- a/data/trans_dic/P44-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P44-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,67%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0,0; 13,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>7,52; 26,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>17,42; 37,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>1,87; 15,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>3,72; 21,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>19,13; 32,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>1,81; 10,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>6,82; 20,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>19,87; 32,1</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,14%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>3,29; 9,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>6,26; 14,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>27,09; 37,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>2,89; 8,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>5,24; 12,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>25,31; 33,02</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,72; 8,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,71; 11,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>26,93; 33,18</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,4%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>5,59; 12,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>7,32; 13,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>34,02; 61,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>6,89; 12,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>5,17; 10,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>26,81; 33,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,87; 11,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>6,91; 10,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>31,99; 47,68</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,85%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>7,52; 17,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>8,08; 15,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>28,62; 38,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>6,25; 13,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>4,18; 10,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>8,36; 25,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>7,65; 13,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>6,99; 11,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>14,84; 29,74</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,11%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,36%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>8,22; 16,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>11,3; 18,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>39,24; 47,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>4,15; 8,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>5,24; 10,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>30,97; 37,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>6,84; 11,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>8,57; 12,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,88; 41,08</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,01%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>7,78; 11,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>10,03; 13,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>35,39; 46,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>6,16; 8,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,48; 30,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>7,31; 9,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>8,46; 10,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,59; 35,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P44-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>27,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>9,67%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>29,29%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,92</t>
+          <t>3,43; 8,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 26,56</t>
+          <t>7,66; 15,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,42; 37,91</t>
+          <t>26,67; 36,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 15,8</t>
+          <t>3,05; 8,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 21,73</t>
+          <t>5,51; 12,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,13; 32,48</t>
+          <t>24,8; 31,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 10,64</t>
+          <t>3,86; 7,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 20,26</t>
+          <t>7,35; 12,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,87; 32,1</t>
+          <t>26,63; 31,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>60,15%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>47,97%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,7</t>
+          <t>5,59; 12,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,46</t>
+          <t>7,32; 13,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,09; 37,33</t>
+          <t>33,8; 84,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,7</t>
+          <t>6,89; 12,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 12,29</t>
+          <t>5,17; 10,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,31; 33,02</t>
+          <t>26,47; 32,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 8,19</t>
+          <t>6,87; 11,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,87</t>
+          <t>6,91; 10,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,93; 33,18</t>
+          <t>31,95; 72,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>33,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,93%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,35</t>
+          <t>7,52; 17,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,61</t>
+          <t>8,08; 15,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>34,02; 61,31</t>
+          <t>28,83; 38,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,78</t>
+          <t>6,25; 13,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,6</t>
+          <t>4,18; 10,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,81; 33,24</t>
+          <t>4,91; 25,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,48</t>
+          <t>7,65; 13,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,91; 10,93</t>
+          <t>6,99; 11,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>31,99; 47,68</t>
+          <t>10,2; 29,82</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>34,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>38,56%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 17,46</t>
+          <t>8,22; 16,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 15,8</t>
+          <t>11,3; 18,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,62; 38,7</t>
+          <t>39,58; 47,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 13,34</t>
+          <t>4,15; 8,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,36</t>
+          <t>5,24; 10,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,36; 25,87</t>
+          <t>31,01; 37,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,77</t>
+          <t>6,84; 11,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,94</t>
+          <t>8,57; 12,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 29,74</t>
+          <t>36,05; 41,32</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>45,64%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>34,52%</t>
+          <t>26,52%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>35,81%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,22; 16,04</t>
+          <t>7,78; 11,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,3; 18,29</t>
+          <t>10,03; 13,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>39,24; 47,33</t>
+          <t>35,72; 67,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,69</t>
+          <t>6,15; 8,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,32</t>
+          <t>6,16; 8,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,97; 37,63</t>
+          <t>17,15; 30,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,01</t>
+          <t>7,31; 9,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,74</t>
+          <t>8,46; 10,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>35,88; 41,08</t>
+          <t>29,29; 48,7</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>9,53%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,78%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>38,5%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,5%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>28,27%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>9,49%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>33,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>7,78; 11,47</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>10,03; 13,54</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>35,39; 46,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 8,98</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6,16; 8,99</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>22,48; 30,71</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,31; 9,67</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>8,46; 10,75</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>29,59; 35,9</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P44-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 8,91</t>
+          <t>3,13; 8,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 15,08</t>
+          <t>7,57; 15,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,67; 36,12</t>
+          <t>26,01; 35,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,56</t>
+          <t>3,12; 8,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 12,47</t>
+          <t>5,83; 12,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,8; 31,19</t>
+          <t>24,6; 31,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,75</t>
+          <t>3,76; 7,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,35; 12,45</t>
+          <t>7,57; 12,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,63; 31,91</t>
+          <t>26,88; 32,09</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 12,35</t>
+          <t>5,42; 12,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 13,61</t>
+          <t>7,43; 13,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,8; 84,78</t>
+          <t>34,48; 84,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,78</t>
+          <t>6,62; 12,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,6</t>
+          <t>5,11; 10,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,47; 32,92</t>
+          <t>26,56; 32,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,48</t>
+          <t>7,07; 11,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,91; 10,93</t>
+          <t>6,71; 10,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,95; 72,81</t>
+          <t>31,74; 72,03</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 17,46</t>
+          <t>7,72; 17,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,08; 15,8</t>
+          <t>8,25; 16,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,83; 38,83</t>
+          <t>29,11; 38,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 13,34</t>
+          <t>6,0; 12,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,36</t>
+          <t>4,11; 10,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 25,84</t>
+          <t>4,85; 25,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 13,77</t>
+          <t>7,85; 13,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,94</t>
+          <t>6,82; 11,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,2; 29,82</t>
+          <t>8,89; 29,89</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 16,04</t>
+          <t>8,13; 15,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 18,29</t>
+          <t>11,44; 18,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,58; 47,71</t>
+          <t>39,34; 47,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 8,69</t>
+          <t>4,04; 8,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,32</t>
+          <t>5,09; 10,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,01; 37,57</t>
+          <t>31,71; 37,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,84; 11,01</t>
+          <t>6,7; 10,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,74</t>
+          <t>8,57; 12,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,05; 41,32</t>
+          <t>36,14; 41,13</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,47</t>
+          <t>7,77; 11,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 13,54</t>
+          <t>10,13; 13,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,72; 67,92</t>
+          <t>35,86; 66,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,98</t>
+          <t>6,1; 8,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,99</t>
+          <t>6,16; 8,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 30,47</t>
+          <t>17,47; 30,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,67</t>
+          <t>7,3; 9,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 10,75</t>
+          <t>8,37; 10,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29,29; 48,7</t>
+          <t>29,41; 49,26</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15201</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>31702</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>92986</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16307</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>27716</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97661</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31508</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>59418</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>190647</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8357; 23692</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22072; 44902</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>78048; 106541</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9347; 25406</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>18825; 40210</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>86316; 108959</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21327; 44169</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46505; 76191</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>174996; 208850</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>28501</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40300</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>386980</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37386</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34695</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>127184</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65887</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>74994</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>514163</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>17964; 41339</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30141; 53475</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>221847; 544400</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>26212; 48856</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23950; 49439</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>113807; 141200</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>51454; 84062</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58643; 94338</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>340227; 772076</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28624</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>32674</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>107725</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27406</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20302</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>72306</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56030</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52976</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>180030</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18932; 42641</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23429; 48117</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93796; 123839</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>18195; 39121</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>12215; 30785</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>24256; 126924</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43053; 74635</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>39636; 69439</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73150; 245847</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>41431</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>60192</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>192807</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28962</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36587</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>182272</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>70393</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>96779</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>375079</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28486; 55894</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47839; 76709</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>174855; 210423</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>18950; 40966</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25861; 52606</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>167528; 199961</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>54855; 89409</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>79309; 116727</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>351539; 400100</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>715</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1615</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>113757</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>164868</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>780497</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>110061</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>119300</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>479423</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>223818</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>284168</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1259920</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>92764; 138282</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>141704; 191956</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>613221; 1137669</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>89516; 131398</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>98308; 141896</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>315898; 550702</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>194216; 254540</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>250835; 316911</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1034627; 1733043</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44-Habitat-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1226,7 +1226,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se han realizado alguna vez una prueba para detectar el cancer de colon</t>
+          <t>Población que se ha realizado alguna vez una prueba para detectar el cancer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
